--- a/docs/mcode/shr-core-AnatomicalDirection-extension.xlsx
+++ b/docs/mcode/shr-core-AnatomicalDirection-extension.xlsx
@@ -201,10 +201,10 @@
     <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/LocationQualifierVS</t>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/AnatomicalDirectionVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -389,7 +389,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.58203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.75390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
